--- a/Documentation/ESD_CW1_Gantt.xlsx
+++ b/Documentation/ESD_CW1_Gantt.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23517"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{767394D2-9EC0-4201-80DA-8C6DE7A121B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conranpearce/NetBeansProjects/ESD-Group-3-Sprint-1/ESD-Group-3-CW1/Documentation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F64575D-9F24-224D-A867-7E9E05F854E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Legend:</t>
   </si>
@@ -71,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,12 +88,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -215,7 +222,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -225,6 +232,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -234,17 +252,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
@@ -565,58 +574,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="39" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="39" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="2:16">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="14"/>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="16"/>
       <c r="C4" s="4">
         <v>1</v>
       </c>
@@ -660,7 +669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15" customHeight="1">
+    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -679,12 +688,12 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -695,88 +704,102 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="16"/>
+      <c r="O6" s="10"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="F8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="M8" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="18"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="22" spans="18:18">
+    <row r="22" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R22" t="s">
         <v>12</v>
       </c>
